--- a/Code/Results/Cases/Case_9_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015129417946345</v>
+        <v>1.014104839019139</v>
       </c>
       <c r="D2">
-        <v>1.037615699578389</v>
+        <v>1.035814418234169</v>
       </c>
       <c r="E2">
-        <v>1.019519341985422</v>
+        <v>1.018643814422689</v>
       </c>
       <c r="F2">
-        <v>1.042157642586688</v>
+        <v>1.040929158308874</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055730132263216</v>
+        <v>1.054779349249849</v>
       </c>
       <c r="J2">
-        <v>1.036866839022561</v>
+        <v>1.035871708384544</v>
       </c>
       <c r="K2">
-        <v>1.04857472853786</v>
+        <v>1.046796369799362</v>
       </c>
       <c r="L2">
-        <v>1.030713277610593</v>
+        <v>1.029849380814593</v>
       </c>
       <c r="M2">
-        <v>1.053059310840751</v>
+        <v>1.051846279615521</v>
       </c>
       <c r="N2">
-        <v>1.016122136100716</v>
+        <v>1.016670674679357</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050565206902748</v>
+        <v>1.049605186566011</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045416798092295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04416806340716</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024437631632648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018415626248949</v>
+        <v>1.017278120652665</v>
       </c>
       <c r="D3">
-        <v>1.03987425615478</v>
+        <v>1.03791760464328</v>
       </c>
       <c r="E3">
-        <v>1.022071254953762</v>
+        <v>1.021095662472944</v>
       </c>
       <c r="F3">
-        <v>1.044517237965286</v>
+        <v>1.043179000647711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056606620178836</v>
+        <v>1.055566253490493</v>
       </c>
       <c r="J3">
-        <v>1.038416548734904</v>
+        <v>1.037308597921758</v>
       </c>
       <c r="K3">
-        <v>1.050021145368026</v>
+        <v>1.048087263754877</v>
       </c>
       <c r="L3">
-        <v>1.032429308720914</v>
+        <v>1.031465552244225</v>
       </c>
       <c r="M3">
-        <v>1.054610517508384</v>
+        <v>1.053287671542934</v>
       </c>
       <c r="N3">
-        <v>1.016645284263175</v>
+        <v>1.017054957828936</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051792865134588</v>
+        <v>1.05074593658738</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046436880507932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045077905616561</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024685225543466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020508612299298</v>
+        <v>1.019299770832373</v>
       </c>
       <c r="D4">
-        <v>1.041316408058421</v>
+        <v>1.039261169056214</v>
       </c>
       <c r="E4">
-        <v>1.023702088269805</v>
+        <v>1.022663228615275</v>
       </c>
       <c r="F4">
-        <v>1.046025807622154</v>
+        <v>1.044618027234732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057156531327831</v>
+        <v>1.056059240259369</v>
       </c>
       <c r="J4">
-        <v>1.039401866896353</v>
+        <v>1.038222347253628</v>
       </c>
       <c r="K4">
-        <v>1.050940497738742</v>
+        <v>1.048907758543031</v>
       </c>
       <c r="L4">
-        <v>1.033522624607777</v>
+        <v>1.032495611665397</v>
       </c>
       <c r="M4">
-        <v>1.055598749849689</v>
+        <v>1.054206199691106</v>
       </c>
       <c r="N4">
-        <v>1.016977960094655</v>
+        <v>1.017299419921789</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052574972360924</v>
+        <v>1.051472879534697</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047087816231359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045659025626865</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024840370295772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021383536923175</v>
+        <v>1.020144961261011</v>
       </c>
       <c r="D5">
-        <v>1.041922064204785</v>
+        <v>1.039825722247453</v>
       </c>
       <c r="E5">
-        <v>1.024385494183617</v>
+        <v>1.02332024358885</v>
       </c>
       <c r="F5">
-        <v>1.046658491184217</v>
+        <v>1.045221725489386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057385851919063</v>
+        <v>1.05626479177235</v>
       </c>
       <c r="J5">
-        <v>1.039814759786299</v>
+        <v>1.038605345482416</v>
       </c>
       <c r="K5">
-        <v>1.051326951082435</v>
+        <v>1.049252958143439</v>
       </c>
       <c r="L5">
-        <v>1.033980801259362</v>
+        <v>1.032927376210092</v>
       </c>
       <c r="M5">
-        <v>1.056013286259032</v>
+        <v>1.054591656935255</v>
       </c>
       <c r="N5">
-        <v>1.017117725246456</v>
+        <v>1.017402166002358</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05290304468627</v>
+        <v>1.051777938484506</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047368165955316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045910918040273</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024905614519813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021533428771676</v>
+        <v>1.02028970829545</v>
       </c>
       <c r="D6">
-        <v>1.04202823189825</v>
+        <v>1.039924881996938</v>
       </c>
       <c r="E6">
-        <v>1.024503102077668</v>
+        <v>1.023433273466007</v>
       </c>
       <c r="F6">
-        <v>1.046767822013849</v>
+        <v>1.045326098603751</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057426809173236</v>
+        <v>1.056301674365499</v>
       </c>
       <c r="J6">
-        <v>1.039887207794656</v>
+        <v>1.038672621895038</v>
       </c>
       <c r="K6">
-        <v>1.051396299570922</v>
+        <v>1.049315272366947</v>
       </c>
       <c r="L6">
-        <v>1.034060602046626</v>
+        <v>1.033002595643439</v>
       </c>
       <c r="M6">
-        <v>1.056085990629825</v>
+        <v>1.054659387346268</v>
       </c>
       <c r="N6">
-        <v>1.017142671306353</v>
+        <v>1.017420529661664</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052960584350697</v>
+        <v>1.051831541739942</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047425858666869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045964506403869</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024917982726513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020529577315501</v>
+        <v>1.019326403779808</v>
       </c>
       <c r="D7">
-        <v>1.041337214069388</v>
+        <v>1.039285766182811</v>
       </c>
       <c r="E7">
-        <v>1.023719677647271</v>
+        <v>1.022685893631821</v>
       </c>
       <c r="F7">
-        <v>1.04604325704946</v>
+        <v>1.044638703979043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05716682419144</v>
+        <v>1.056072395189884</v>
       </c>
       <c r="J7">
-        <v>1.039416420051479</v>
+        <v>1.038242418403836</v>
       </c>
       <c r="K7">
-        <v>1.050958233721591</v>
+        <v>1.048929235466949</v>
       </c>
       <c r="L7">
-        <v>1.033537105379746</v>
+        <v>1.032515105686063</v>
       </c>
       <c r="M7">
-        <v>1.055613184982463</v>
+        <v>1.054223821500228</v>
       </c>
       <c r="N7">
-        <v>1.016984032101821</v>
+        <v>1.017331480253837</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052586396613329</v>
+        <v>1.051486825806842</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04712027181918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045696126225374</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024846743435808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016258574276783</v>
+        <v>1.015214888013614</v>
       </c>
       <c r="D8">
-        <v>1.038398708775696</v>
+        <v>1.036558440011526</v>
       </c>
       <c r="E8">
-        <v>1.020396615031636</v>
+        <v>1.019504414432759</v>
       </c>
       <c r="F8">
-        <v>1.042970022977196</v>
+        <v>1.0417157409905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056038854786809</v>
+        <v>1.055067760741911</v>
       </c>
       <c r="J8">
-        <v>1.03740543688314</v>
+        <v>1.036390759835452</v>
       </c>
       <c r="K8">
-        <v>1.049082501940628</v>
+        <v>1.047264967991099</v>
       </c>
       <c r="L8">
-        <v>1.03130721112184</v>
+        <v>1.0304265116308</v>
       </c>
       <c r="M8">
-        <v>1.053597773362812</v>
+        <v>1.05235880757184</v>
       </c>
       <c r="N8">
-        <v>1.016305437317025</v>
+        <v>1.01688908757952</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050991357921312</v>
+        <v>1.050010812928925</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045798521145877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044524355762795</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024531984206251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008452224495116</v>
+        <v>1.007683522843811</v>
       </c>
       <c r="D9">
-        <v>1.03304829664273</v>
+        <v>1.031581317234381</v>
       </c>
       <c r="E9">
-        <v>1.014365602020133</v>
+        <v>1.01371673547539</v>
       </c>
       <c r="F9">
-        <v>1.03739607207273</v>
+        <v>1.036406422492925</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053905335295625</v>
+        <v>1.053149329603824</v>
       </c>
       <c r="J9">
-        <v>1.033710003283669</v>
+        <v>1.032967843456301</v>
       </c>
       <c r="K9">
-        <v>1.045627014978558</v>
+        <v>1.044181977788326</v>
       </c>
       <c r="L9">
-        <v>1.027229829034352</v>
+        <v>1.02659112030115</v>
       </c>
       <c r="M9">
-        <v>1.049910222054469</v>
+        <v>1.048935209138122</v>
       </c>
       <c r="N9">
-        <v>1.015056982826345</v>
+        <v>1.015982690902183</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048072944275674</v>
+        <v>1.047301294519571</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043352161991736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042341087693441</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023926655695474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003101197963263</v>
+        <v>1.002549717249461</v>
       </c>
       <c r="D10">
-        <v>1.029426032516923</v>
+        <v>1.02823406950354</v>
       </c>
       <c r="E10">
-        <v>1.010269982332848</v>
+        <v>1.009812959598585</v>
       </c>
       <c r="F10">
-        <v>1.033681342841341</v>
+        <v>1.032889737172793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052423871182862</v>
+        <v>1.051828697012849</v>
       </c>
       <c r="J10">
-        <v>1.031192312202359</v>
+        <v>1.030662537727637</v>
       </c>
       <c r="K10">
-        <v>1.043283567156764</v>
+        <v>1.042111598524583</v>
       </c>
       <c r="L10">
-        <v>1.024456252249921</v>
+        <v>1.024007269902652</v>
       </c>
       <c r="M10">
-        <v>1.047467981755505</v>
+        <v>1.046689507708774</v>
       </c>
       <c r="N10">
-        <v>1.014212456515607</v>
+        <v>1.015487054738018</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046191053783845</v>
+        <v>1.04557498605456</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0417118938286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040895569700028</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023517790133276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001082378990428</v>
+        <v>1.000627712788528</v>
       </c>
       <c r="D11">
-        <v>1.028236146945134</v>
+        <v>1.027150359213097</v>
       </c>
       <c r="E11">
-        <v>1.008783667162503</v>
+        <v>1.008409905524233</v>
       </c>
       <c r="F11">
-        <v>1.032860845748527</v>
+        <v>1.032148649334097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052023674653642</v>
+        <v>1.051493355883598</v>
       </c>
       <c r="J11">
-        <v>1.030410198952183</v>
+        <v>1.029974401470308</v>
       </c>
       <c r="K11">
-        <v>1.042644517842764</v>
+        <v>1.041577801312875</v>
       </c>
       <c r="L11">
-        <v>1.023541815905942</v>
+        <v>1.023174947144744</v>
       </c>
       <c r="M11">
-        <v>1.047188567784168</v>
+        <v>1.046488730234255</v>
       </c>
       <c r="N11">
-        <v>1.013995329362781</v>
+        <v>1.015562130167907</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046402185995023</v>
+        <v>1.045848623206487</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041292633462226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040553941808761</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023459835127908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000435079389898</v>
+        <v>1.000004732899037</v>
       </c>
       <c r="D12">
-        <v>1.027916766419154</v>
+        <v>1.026856828048601</v>
       </c>
       <c r="E12">
-        <v>1.008328351340141</v>
+        <v>1.007973830892661</v>
       </c>
       <c r="F12">
-        <v>1.032832256035753</v>
+        <v>1.032139790076525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051954953686521</v>
+        <v>1.051440598027947</v>
       </c>
       <c r="J12">
-        <v>1.030221037282024</v>
+        <v>1.029808892421623</v>
       </c>
       <c r="K12">
-        <v>1.042527981226602</v>
+        <v>1.041486968306054</v>
       </c>
       <c r="L12">
-        <v>1.023297713953784</v>
+        <v>1.022949842908697</v>
       </c>
       <c r="M12">
-        <v>1.047356361882214</v>
+        <v>1.046676102231054</v>
       </c>
       <c r="N12">
-        <v>1.013966525910973</v>
+        <v>1.015642031513595</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046858585373668</v>
+        <v>1.046320687652031</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041210239600768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040489722152011</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023473720002088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000813524911537</v>
+        <v>1.000344053617601</v>
       </c>
       <c r="D13">
-        <v>1.028264443074456</v>
+        <v>1.027163405307032</v>
       </c>
       <c r="E13">
-        <v>1.008646138708045</v>
+        <v>1.008254870860186</v>
       </c>
       <c r="F13">
-        <v>1.033435056913198</v>
+        <v>1.032712144486491</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052152256213526</v>
+        <v>1.051612474830089</v>
       </c>
       <c r="J13">
-        <v>1.030490999514493</v>
+        <v>1.030041291810151</v>
       </c>
       <c r="K13">
-        <v>1.042827175095252</v>
+        <v>1.041745714884169</v>
       </c>
       <c r="L13">
-        <v>1.02356606199846</v>
+        <v>1.023182102514743</v>
       </c>
       <c r="M13">
-        <v>1.047906573146353</v>
+        <v>1.047196342577468</v>
       </c>
       <c r="N13">
-        <v>1.014087542355779</v>
+        <v>1.015700754679103</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047568249407488</v>
+        <v>1.047006792156698</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041419304552364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040669943974214</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023549831022916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00154349625216</v>
+        <v>1.001018888077035</v>
       </c>
       <c r="D14">
-        <v>1.028810731017715</v>
+        <v>1.027651374069611</v>
       </c>
       <c r="E14">
-        <v>1.009219041583336</v>
+        <v>1.008777771328082</v>
       </c>
       <c r="F14">
-        <v>1.034142760371412</v>
+        <v>1.033376472698974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052410718894366</v>
+        <v>1.051834921985486</v>
       </c>
       <c r="J14">
-        <v>1.030887767154112</v>
+        <v>1.030384935029509</v>
       </c>
       <c r="K14">
-        <v>1.043225315136604</v>
+        <v>1.04208632047416</v>
       </c>
       <c r="L14">
-        <v>1.023985913224939</v>
+        <v>1.023552783038699</v>
       </c>
       <c r="M14">
-        <v>1.048464456289094</v>
+        <v>1.047711441634584</v>
       </c>
       <c r="N14">
-        <v>1.014240083197356</v>
+        <v>1.015733709513547</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048181444197437</v>
+        <v>1.047586244458868</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041702210596683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04091230610906</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023631719796619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001950108440211</v>
+        <v>1.001398370284338</v>
       </c>
       <c r="D15">
-        <v>1.029098125550337</v>
+        <v>1.027909807323247</v>
       </c>
       <c r="E15">
-        <v>1.009532432613561</v>
+        <v>1.009066965957331</v>
       </c>
       <c r="F15">
-        <v>1.034468236177442</v>
+        <v>1.033680393965908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052537470283743</v>
+        <v>1.051943821969785</v>
       </c>
       <c r="J15">
-        <v>1.03109138574041</v>
+        <v>1.030562353381655</v>
       </c>
       <c r="K15">
-        <v>1.043422393440692</v>
+        <v>1.042254789815025</v>
       </c>
       <c r="L15">
-        <v>1.02420585116456</v>
+        <v>1.023748905507411</v>
       </c>
       <c r="M15">
-        <v>1.048699660192666</v>
+        <v>1.04792536092158</v>
       </c>
       <c r="N15">
-        <v>1.014312774303692</v>
+        <v>1.01574218574439</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048404663847485</v>
+        <v>1.047792656262717</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041847369674165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041037807330406</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023668320747765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004143762948375</v>
+        <v>1.003465679016744</v>
       </c>
       <c r="D16">
-        <v>1.030573887894637</v>
+        <v>1.029246611334692</v>
       </c>
       <c r="E16">
-        <v>1.011200948734915</v>
+        <v>1.010624549042439</v>
       </c>
       <c r="F16">
-        <v>1.035959093855089</v>
+        <v>1.035068243153445</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053147172842287</v>
+        <v>1.052468559199454</v>
       </c>
       <c r="J16">
-        <v>1.032117671806601</v>
+        <v>1.031466118479109</v>
       </c>
       <c r="K16">
-        <v>1.044377100851104</v>
+        <v>1.043071963600855</v>
       </c>
       <c r="L16">
-        <v>1.025334776741651</v>
+        <v>1.024768465337203</v>
       </c>
       <c r="M16">
-        <v>1.049673228770047</v>
+        <v>1.048797031543125</v>
       </c>
       <c r="N16">
-        <v>1.014651765657063</v>
+        <v>1.01577319964102</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049135691144162</v>
+        <v>1.048443123751168</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042525510961663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04161900854483</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023826804033144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00544686556658</v>
+        <v>1.004707323260299</v>
       </c>
       <c r="D17">
-        <v>1.031421549333194</v>
+        <v>1.03002291893583</v>
       </c>
       <c r="E17">
-        <v>1.01218441064477</v>
+        <v>1.011554683848885</v>
       </c>
       <c r="F17">
-        <v>1.036728411172768</v>
+        <v>1.035785131674395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053477289738176</v>
+        <v>1.052755716495498</v>
       </c>
       <c r="J17">
-        <v>1.032697326049076</v>
+        <v>1.031985800168344</v>
       </c>
       <c r="K17">
-        <v>1.044900196860274</v>
+        <v>1.04352424796947</v>
       </c>
       <c r="L17">
-        <v>1.025982123334668</v>
+        <v>1.025363105993436</v>
       </c>
       <c r="M17">
-        <v>1.050121711244735</v>
+        <v>1.049193520060598</v>
       </c>
       <c r="N17">
-        <v>1.014831929971021</v>
+        <v>1.01580812257941</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049361977010416</v>
+        <v>1.048628240073336</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042897919273734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041941598889644</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023905813832723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006092074422502</v>
+        <v>1.005334437289198</v>
       </c>
       <c r="D18">
-        <v>1.031781885649354</v>
+        <v>1.030359467698686</v>
       </c>
       <c r="E18">
-        <v>1.012654126413124</v>
+        <v>1.012009790562181</v>
       </c>
       <c r="F18">
-        <v>1.036900205682777</v>
+        <v>1.035939562975949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053582429603778</v>
+        <v>1.05284700631669</v>
       </c>
       <c r="J18">
-        <v>1.032926889823662</v>
+        <v>1.032197419822651</v>
       </c>
       <c r="K18">
-        <v>1.045073681348823</v>
+        <v>1.04367395590251</v>
       </c>
       <c r="L18">
-        <v>1.026257950427542</v>
+        <v>1.025624390183273</v>
       </c>
       <c r="M18">
-        <v>1.050111005536082</v>
+        <v>1.049165486612699</v>
       </c>
       <c r="N18">
-        <v>1.014883494615724</v>
+        <v>1.015806519409393</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049117551156532</v>
+        <v>1.048369962874601</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043009043052215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042034776124687</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023914116383086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006141140871301</v>
+        <v>1.005400506164289</v>
       </c>
       <c r="D19">
-        <v>1.031705052339982</v>
+        <v>1.030299517505444</v>
       </c>
       <c r="E19">
-        <v>1.012658247324371</v>
+        <v>1.012030643515168</v>
       </c>
       <c r="F19">
-        <v>1.036526906685579</v>
+        <v>1.035578531731566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05348680395905</v>
+        <v>1.052762025677762</v>
       </c>
       <c r="J19">
-        <v>1.032840850945203</v>
+        <v>1.032127586081108</v>
       </c>
       <c r="K19">
-        <v>1.044936338218209</v>
+        <v>1.043553111017024</v>
       </c>
       <c r="L19">
-        <v>1.026198611215163</v>
+        <v>1.025581446708982</v>
       </c>
       <c r="M19">
-        <v>1.049682251643982</v>
+        <v>1.048748741476992</v>
       </c>
       <c r="N19">
-        <v>1.014822184003497</v>
+        <v>1.015754789521426</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048455710882545</v>
+        <v>1.047717380065615</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042918277272176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041956300188195</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023860252257789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004510100734961</v>
+        <v>1.00388231596717</v>
       </c>
       <c r="D20">
-        <v>1.03039439514119</v>
+        <v>1.029116772105769</v>
       </c>
       <c r="E20">
-        <v>1.011349803952056</v>
+        <v>1.010824930340299</v>
       </c>
       <c r="F20">
-        <v>1.034666428256901</v>
+        <v>1.033811472521642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052829187456013</v>
+        <v>1.052181941107546</v>
       </c>
       <c r="J20">
-        <v>1.031868265834414</v>
+        <v>1.031264396826211</v>
       </c>
       <c r="K20">
-        <v>1.043923051729079</v>
+        <v>1.042666256739162</v>
       </c>
       <c r="L20">
-        <v>1.025195974040094</v>
+        <v>1.024680070050597</v>
       </c>
       <c r="M20">
-        <v>1.04812592069632</v>
+        <v>1.047284747961992</v>
       </c>
       <c r="N20">
-        <v>1.014442756966837</v>
+        <v>1.015551256554</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04670128635204</v>
+        <v>1.046035592291393</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042205742920765</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041333547288733</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023630713130367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000433198413871</v>
+        <v>1.000065366126277</v>
       </c>
       <c r="D21">
-        <v>1.027606521515653</v>
+        <v>1.026607454203869</v>
       </c>
       <c r="E21">
-        <v>1.008230642196471</v>
+        <v>1.007937555578406</v>
       </c>
       <c r="F21">
-        <v>1.031735373324591</v>
+        <v>1.031088532123638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051651584746672</v>
+        <v>1.051176133100489</v>
       </c>
       <c r="J21">
-        <v>1.029912818938915</v>
+        <v>1.029560354663287</v>
       </c>
       <c r="K21">
-        <v>1.042083098376423</v>
+        <v>1.041101685266192</v>
       </c>
       <c r="L21">
-        <v>1.023057742479432</v>
+        <v>1.022770092948183</v>
       </c>
       <c r="M21">
-        <v>1.046139460202641</v>
+        <v>1.045503925871128</v>
       </c>
       <c r="N21">
-        <v>1.013778282543171</v>
+        <v>1.015509993132554</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045088663986532</v>
+        <v>1.044585684177221</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040908046118141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040230881025534</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023317131889055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9978370566072806</v>
+        <v>0.9976323919208263</v>
       </c>
       <c r="D22">
-        <v>1.025841227167603</v>
+        <v>1.025016963734699</v>
       </c>
       <c r="E22">
-        <v>1.006253297242037</v>
+        <v>1.00610574094235</v>
       </c>
       <c r="F22">
-        <v>1.029910737606184</v>
+        <v>1.029394620502213</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050899675350936</v>
+        <v>1.050531668463777</v>
       </c>
       <c r="J22">
-        <v>1.028672477746946</v>
+        <v>1.0284768544577</v>
       </c>
       <c r="K22">
-        <v>1.040917576835922</v>
+        <v>1.04010860326615</v>
       </c>
       <c r="L22">
-        <v>1.021701884676579</v>
+        <v>1.021557204597271</v>
       </c>
       <c r="M22">
-        <v>1.044912066119935</v>
+        <v>1.044405420818405</v>
       </c>
       <c r="N22">
-        <v>1.01335808512999</v>
+        <v>1.015477198460543</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044117269352621</v>
+        <v>1.043716295454984</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040070586868834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039514041147362</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023117258397187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9992091006333732</v>
+        <v>0.9989080417431077</v>
       </c>
       <c r="D23">
-        <v>1.026768257301678</v>
+        <v>1.025844176226973</v>
       </c>
       <c r="E23">
-        <v>1.007296257904943</v>
+        <v>1.007062602577429</v>
       </c>
       <c r="F23">
-        <v>1.030872295189357</v>
+        <v>1.030280930471701</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051293883177935</v>
+        <v>1.050863801817212</v>
       </c>
       <c r="J23">
-        <v>1.029323967399759</v>
+        <v>1.029035823886138</v>
       </c>
       <c r="K23">
-        <v>1.04152646910178</v>
+        <v>1.0406190977744</v>
       </c>
       <c r="L23">
-        <v>1.02241505153958</v>
+        <v>1.022185833752543</v>
       </c>
       <c r="M23">
-        <v>1.045556765541375</v>
+        <v>1.044975979426436</v>
       </c>
       <c r="N23">
-        <v>1.013577545415037</v>
+        <v>1.015450044218301</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044627502996942</v>
+        <v>1.044167852195519</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040491535523205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039864476406894</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023217695513335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004529901585771</v>
+        <v>1.003904104866503</v>
       </c>
       <c r="D24">
-        <v>1.030382623159549</v>
+        <v>1.029106556511669</v>
       </c>
       <c r="E24">
-        <v>1.011358025976592</v>
+        <v>1.010835212263176</v>
       </c>
       <c r="F24">
-        <v>1.034620284811962</v>
+        <v>1.033766548478833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052812065442713</v>
+        <v>1.052165928333282</v>
       </c>
       <c r="J24">
-        <v>1.031854684870621</v>
+        <v>1.031252693340234</v>
       </c>
       <c r="K24">
-        <v>1.043896397462406</v>
+        <v>1.042641107465041</v>
       </c>
       <c r="L24">
-        <v>1.025188575252782</v>
+        <v>1.024674684265859</v>
       </c>
       <c r="M24">
-        <v>1.048065534146303</v>
+        <v>1.04722554513749</v>
       </c>
       <c r="N24">
-        <v>1.014432252117903</v>
+        <v>1.015540125552992</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046613011167572</v>
+        <v>1.045948221462469</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0421597231625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041285917542079</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023619048068294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010517923590849</v>
+        <v>1.009667478568743</v>
       </c>
       <c r="D25">
-        <v>1.034469948886979</v>
+        <v>1.032898115264435</v>
       </c>
       <c r="E25">
-        <v>1.015958208679232</v>
+        <v>1.015236883732229</v>
       </c>
       <c r="F25">
-        <v>1.038868856256289</v>
+        <v>1.037803964570133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054484424981893</v>
+        <v>1.053667100544246</v>
       </c>
       <c r="J25">
-        <v>1.034696429281618</v>
+        <v>1.033873816853035</v>
       </c>
       <c r="K25">
-        <v>1.046555731935551</v>
+        <v>1.045006327484711</v>
       </c>
       <c r="L25">
-        <v>1.028313743857124</v>
+        <v>1.02760318328735</v>
       </c>
       <c r="M25">
-        <v>1.050892325287682</v>
+        <v>1.049842457383531</v>
       </c>
       <c r="N25">
-        <v>1.015392154888479</v>
+        <v>1.016193589660876</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048850204674477</v>
+        <v>1.048019313635954</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044037141128718</v>
+        <v>1.042955080184433</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024092297902946</v>
       </c>
     </row>
   </sheetData>
